--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-too-many-sheets.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-too-many-sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="280" windowWidth="25600" windowHeight="20460"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -247,12 +247,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
@@ -323,8 +323,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -344,9 +346,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,7 +751,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -761,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -776,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -787,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -796,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -807,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -816,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -827,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -836,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -847,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -856,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -867,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -876,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -887,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -896,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -907,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -916,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -927,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -936,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -947,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -956,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -967,7 +971,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -976,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -987,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -996,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1007,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1016,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1027,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -1036,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1047,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -1056,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1067,7 +1071,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -1076,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1087,7 +1091,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>52</v>
@@ -1096,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1107,7 +1111,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -1116,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1127,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>58</v>
@@ -1136,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1147,7 +1151,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>61</v>
@@ -1156,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1167,7 +1171,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
@@ -1176,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1187,7 +1191,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>67</v>
@@ -1196,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1207,7 +1211,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>70</v>
@@ -1216,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1227,7 +1231,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
@@ -1236,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1260,14 +1264,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" ht="0" hidden="1"/>
-    <row r="2" ht="0" hidden="1"/>
-    <row r="3" ht="0" hidden="1"/>
-    <row r="4" ht="0" hidden="1"/>
-    <row r="5" ht="0" hidden="1"/>
-    <row r="6" ht="0" hidden="1"/>
-    <row r="7" ht="0" hidden="1"/>
-    <row r="8" ht="0" hidden="1"/>
+    <row r="1" hidden="1"/>
+    <row r="2" hidden="1"/>
+    <row r="3" hidden="1"/>
+    <row r="4" hidden="1"/>
+    <row r="5" hidden="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" hidden="1"/>
+    <row r="8" hidden="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
